--- a/docs/review-data.xlsx
+++ b/docs/review-data.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calmi2\Documents\GitHub\FAIR-BioRS-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A4F70B-8409-423E-BD4F-E2EF6B97D031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F085F6-3F00-419B-B09E-5FDA8A0EFF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2650" yWindow="1570" windowWidth="16920" windowHeight="10540" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="2" r:id="rId1"/>
     <sheet name="searchStrategy" sheetId="1" r:id="rId2"/>
     <sheet name="fair4rsStudiesReview" sheetId="3" r:id="rId3"/>
-    <sheet name="resourcesList" sheetId="4" r:id="rId4"/>
-    <sheet name="resourcesReview" sheetId="5" r:id="rId5"/>
-    <sheet name="resourcesReviewKeywords" sheetId="6" r:id="rId6"/>
+    <sheet name="fair4rsStudiesReview-v2" sheetId="7" r:id="rId4"/>
+    <sheet name="resourcesList" sheetId="4" r:id="rId5"/>
+    <sheet name="resourcesReview" sheetId="5" r:id="rId6"/>
+    <sheet name="resourcesReviewKeywords" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="816">
   <si>
     <t>reviewCategory</t>
   </si>
@@ -2661,12 +2662,66 @@
 Example of PuReGoMe: The code includes dependencies to other software, such as various Python libraries (R2)
 Example of gammaShiny: The archived versions of gammaShiny’s source code in Software Heritage include a codemeta.json file, identifiable with a SWHID, where other metadata is available including dependencies named in CodeMeta - ‘softwareRequirements’(R2)</t>
   </si>
+  <si>
+    <t>F1. Software is assigned a globally unique and persistent identifier</t>
+  </si>
+  <si>
+    <t>additionalResources</t>
+  </si>
+  <si>
+    <t>FAIR4RSv1.0</t>
+  </si>
+  <si>
+    <t>introductionFAIR4RSv1.0</t>
+  </si>
+  <si>
+    <t>A piece of software is given an identifier which is both globally unique (not used to identify any other object, even on a different system) and persistent (long-lasting, including its resolution - the ability to use it to get to the identified source).</t>
+  </si>
+  <si>
+    <t>interpretationExplanation</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>Assign a unique unique and long-lasting identifier to your software. This can be done by sharing the software on a repository or registry that assigns such identifiers</t>
+  </si>
+  <si>
+    <t>F1.1. Components of the software representing levels of granularity are assigned distinct identifiers</t>
+  </si>
+  <si>
+    <t>Figure 1 in Appendix A. Granularity levels include: Project, Project versions, Modules, Sub-Modules, Snapshots, Releases, Commits, Directory, Files, Code fragments</t>
+  </si>
+  <si>
+    <t>Assign distinct identifiers to different components of your software (sofware, software versions, commits, files, etc.). Which componenets need identifier is up to the developer(s) of the software based on what which components they believe are needed to be uniquely indentified and found</t>
+  </si>
+  <si>
+    <t>F1.2. Different versions of the software are assigned distinct identifiers.</t>
+  </si>
+  <si>
+    <t>To make different versions of the same software (or component) findable, each version needs to be assigned a different identifier. The relationship between versions is embodied in the associated metadata. What is considered a “version” is defined by the owner of the software: in many cases this will be something that the owner wants to specifically identify and use and/or “release” or “publish” so that others can use and reference/cite.
+There are existing software engineering practices (e.g., version control, semantic versioning)
+around the management and versioning of software that may form part of the implementation of
+these relationships.</t>
+  </si>
+  <si>
+    <t>Assign distinct identifiers to different versions of a software so that others can reference and cite each version distinctively. What is considered a "version" is up to the developer(s). Include the relashionship between versions in the metadata.</t>
+  </si>
+  <si>
+    <t>F2. Software is described with rich metadata</t>
+  </si>
+  <si>
+    <t>Software requires descriptive metadata to support indexing, search and discoverability. This metadata must itself be FAIR (F4), should follow community standards, and use controlled vocabularies. The FAIR4RS principles do not define which standards should be used, as this is better captured in guidance for implementing the principles coming out of each community. R1, R1.1, and R1.2 describe categories of metadata that enable reuse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide descriptive metadata to help with indexing, search, and discoverability. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2688,8 +2743,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2699,6 +2769,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2715,7 +2803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2731,10 +2819,32 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4481,8 +4591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59386CBF-1CAF-4178-831E-E5A70CAF0294}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="58" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="I1" zoomScale="58" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5283,6 +5393,220 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868A66FF-FB53-4D7D-93AD-C2CA3F6CAE27}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.6328125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="87.6328125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="143" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="145" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" ht="91" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="C23" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49D82B-1314-44E9-9C10-AF21C213EB48}">
   <dimension ref="A1:E210"/>
   <sheetViews>
@@ -5315,34 +5639,34 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s">
         <v>785</v>
       </c>
       <c r="C2" t="s">
         <v>768</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>786</v>
       </c>
       <c r="C3" t="s">
         <v>768</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
@@ -5359,7 +5683,7 @@
       <c r="C4" t="s">
         <v>768</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
@@ -5376,7 +5700,7 @@
       <c r="C5" t="s">
         <v>768</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
@@ -5393,7 +5717,7 @@
       <c r="C6" t="s">
         <v>768</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
@@ -8873,12 +9197,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594EE843-E3DA-42D6-9C6E-79F5CD2EA4F7}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView zoomScale="55" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="L39" zoomScale="55" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8981,48 +9305,48 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>785</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="1">
         <v>2022</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>786</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="1">
         <v>2022</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="1" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -9060,7 +9384,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -9092,7 +9416,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -9136,7 +9460,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -9177,7 +9501,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -9209,7 +9533,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -9241,7 +9565,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -9273,7 +9597,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="290" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -9320,7 +9644,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="232" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -9364,7 +9688,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -9414,7 +9738,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -9452,7 +9776,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -9484,7 +9808,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -9516,7 +9840,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -9557,7 +9881,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -9589,7 +9913,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -9621,7 +9945,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -9683,7 +10007,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -9721,7 +10045,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -9753,7 +10077,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
@@ -9785,7 +10109,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="319" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -9829,7 +10153,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
@@ -9861,7 +10185,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="174" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -9902,7 +10226,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
@@ -9952,7 +10276,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -9984,7 +10308,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
@@ -10016,7 +10340,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -10051,7 +10375,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -10083,7 +10407,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="203" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -10142,7 +10466,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -10174,7 +10498,7 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="58" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -10209,7 +10533,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -10241,7 +10565,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="9">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -10273,7 +10597,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="9">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
@@ -10317,7 +10641,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" ht="290" x14ac:dyDescent="0.35">
-      <c r="A38" s="9">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -10373,7 +10697,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="290" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
@@ -10423,7 +10747,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A40" s="9">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -10455,7 +10779,7 @@
       </c>
     </row>
     <row r="41" spans="1:24" ht="87" x14ac:dyDescent="0.35">
-      <c r="A41" s="9">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -10493,7 +10817,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" ht="116" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1">
@@ -10534,7 +10858,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1">
@@ -10578,7 +10902,7 @@
       </c>
     </row>
     <row r="44" spans="1:24" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="9">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1">
@@ -10628,7 +10952,7 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A45" s="9">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1">
@@ -10660,7 +10984,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="9">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1">
@@ -10695,7 +11019,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1">
@@ -10727,7 +11051,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="9">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1">
@@ -10781,7 +11105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0221B120-414C-4095-AF2A-591768752CFE}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
@@ -10904,48 +11228,48 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>785</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="1">
         <v>2022</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>786</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="1">
         <v>2022</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="1" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -10983,7 +11307,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -11015,7 +11339,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -11056,7 +11380,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -11097,7 +11421,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -11129,7 +11453,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -11161,7 +11485,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -11193,7 +11517,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -11240,7 +11564,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -11284,7 +11608,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -11334,7 +11658,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -11372,7 +11696,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -11404,7 +11728,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -11436,7 +11760,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -11477,7 +11801,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -11509,7 +11833,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -11541,7 +11865,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="58" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -11600,7 +11924,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -11635,7 +11959,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -11667,7 +11991,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
@@ -11699,7 +12023,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -11743,7 +12067,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
@@ -11775,7 +12099,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -11819,7 +12143,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
@@ -11869,7 +12193,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -11901,7 +12225,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
@@ -11933,7 +12257,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -11968,7 +12292,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -12000,7 +12324,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -12056,7 +12380,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -12088,7 +12412,7 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -12126,7 +12450,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -12158,7 +12482,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="9">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -12190,7 +12514,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="58" x14ac:dyDescent="0.35">
-      <c r="A37" s="9">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
@@ -12234,7 +12558,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="9">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -12287,7 +12611,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
@@ -12334,7 +12658,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A40" s="9">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -12366,7 +12690,7 @@
       </c>
     </row>
     <row r="41" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="9">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -12404,7 +12728,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1">
@@ -12445,7 +12769,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1">
@@ -12489,7 +12813,7 @@
       </c>
     </row>
     <row r="44" spans="1:24" ht="58" x14ac:dyDescent="0.35">
-      <c r="A44" s="9">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1">
@@ -12539,7 +12863,7 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A45" s="9">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1">
@@ -12571,7 +12895,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="9">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1">
@@ -12606,7 +12930,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1">
@@ -12638,7 +12962,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="9">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1">

--- a/docs/review-data.xlsx
+++ b/docs/review-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calmi2\Documents\GitHub\FAIR-BioRS-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F085F6-3F00-419B-B09E-5FDA8A0EFF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0DF89E-ED5A-4FCE-A319-743EC37F59B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2650" yWindow="1570" windowWidth="16920" windowHeight="10540" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="845">
   <si>
     <t>reviewCategory</t>
   </si>
@@ -2684,16 +2684,10 @@
     <t>summary</t>
   </si>
   <si>
-    <t>Assign a unique unique and long-lasting identifier to your software. This can be done by sharing the software on a repository or registry that assigns such identifiers</t>
-  </si>
-  <si>
     <t>F1.1. Components of the software representing levels of granularity are assigned distinct identifiers</t>
   </si>
   <si>
     <t>Figure 1 in Appendix A. Granularity levels include: Project, Project versions, Modules, Sub-Modules, Snapshots, Releases, Commits, Directory, Files, Code fragments</t>
-  </si>
-  <si>
-    <t>Assign distinct identifiers to different components of your software (sofware, software versions, commits, files, etc.). Which componenets need identifier is up to the developer(s) of the software based on what which components they believe are needed to be uniquely indentified and found</t>
   </si>
   <si>
     <t>F1.2. Different versions of the software are assigned distinct identifiers.</t>
@@ -2705,23 +2699,119 @@
 these relationships.</t>
   </si>
   <si>
-    <t>Assign distinct identifiers to different versions of a software so that others can reference and cite each version distinctively. What is considered a "version" is up to the developer(s). Include the relashionship between versions in the metadata.</t>
-  </si>
-  <si>
     <t>F2. Software is described with rich metadata</t>
   </si>
   <si>
     <t>Software requires descriptive metadata to support indexing, search and discoverability. This metadata must itself be FAIR (F4), should follow community standards, and use controlled vocabularies. The FAIR4RS principles do not define which standards should be used, as this is better captured in guidance for implementing the principles coming out of each community. R1, R1.1, and R1.2 describe categories of metadata that enable reuse.</t>
   </si>
   <si>
-    <t xml:space="preserve">Provide descriptive metadata to help with indexing, search, and discoverability. </t>
+    <t>F3. Metadata clearly and explicitly include the identifier of the software they describe</t>
+  </si>
+  <si>
+    <t>Assign a unique unique and long-lasting identifier to your software. This can be done by sharing the software on a repository or registry that assigns such identifiers.</t>
+  </si>
+  <si>
+    <t>Assign distinct identifiers to different components of your software (sofware, software versions, commits, files, etc.). Which components need identifier is up to the developer(s) of the software based on which components they believe are needed to be uniquely indentified and found.</t>
+  </si>
+  <si>
+    <t>Assign distinct identifiers to different versions of a software so that others can reference and cite each version distinctively. What is considered a "version" is up to the developer(s). Include the relashionship between versions in the metadata. Using version control systems can help with this.</t>
+  </si>
+  <si>
+    <t>The association between the metadata (wherever it is stored; see F4) and the software should be made explicit by mentioning the software’s globally unique and persistent identifier in its associated metadata</t>
+  </si>
+  <si>
+    <t>F4. Metadata are FAIR, searchable and indexable</t>
+  </si>
+  <si>
+    <t>Making the metadata about the software FAIR, including making it readable and discoverable by both humans and machines, improves the findability of software by supporting searching and indexing by others. It allows the metadata to be published in or harvested by a registry or catalog or repository, or by a search engine. FAIR metadata also enables and encourages citation of research software</t>
+  </si>
+  <si>
+    <t>Provide descriptive metadata that follow community standards and use controlled vocabulary. The FAIR4RS principles do not define which standards should be used, as this is better captured in guidance for implementing the principles coming out of each community. Repositories and registeries can help with that.</t>
+  </si>
+  <si>
+    <t>Include the indentifier of the software in the metadata so that the association between the software and its metadata is c lear. This also means that the metadata describes how the associated software can be obtained. Repositories and registeries can help with that.</t>
+  </si>
+  <si>
+    <t>Make the metadata FAIR, searchable, and indexable such that it is readable and discoverable by both humans and machines and such that it enables citation of the software. Repositories and registeries can help with that.</t>
+  </si>
+  <si>
+    <t>FINDABLE</t>
+  </si>
+  <si>
+    <t>ACCESSIBLE</t>
+  </si>
+  <si>
+    <t>A1. Software is retrievable by its identifier using a standardized communications protocol</t>
+  </si>
+  <si>
+    <t>Different types of software have different methods for access. For instance, software that is only available in source code form may be downloaded from a repository before being compiled locally, whereas software hosted as a service on a remote server may be accessed without retrieving it. This principle states that obtaining the software should not require specialized or proprietary tools or communication methods. For much software, there are commonly used technical communications protocols used to access the software, such as HTTPS</t>
+  </si>
+  <si>
+    <t>Accessible intro paragraph: For software to be accessible, it may be made available in any form (including, but not limited to source code, executable, library, or service) as long as the conditions for access are clearly stated and transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make the software available in any form (source code, execuatable, library, service, etc.) as long as accessing is possiblevia its indentifier through commonly used protocols such as HTTPS and does not require specialized or proprietary tools or communication methods. </t>
+  </si>
+  <si>
+    <t>A1.1. The protocol is open, free, and universally implementable</t>
+  </si>
+  <si>
+    <t>It is the openness of the communications protocol (including the resolver for the identifier) that is important, not the implementation of the infrastructure that supports it. Here “open” means that there are no restrictions to implementing it and “free” means that there are no fees or licensing costs to implement it.</t>
+  </si>
+  <si>
+    <t>The protocol for accessing the software needs to be open (no restrictions for implementing it) and free (no costs for implementing it)</t>
+  </si>
+  <si>
+    <t>A1.2. The protocol allows for an authentication and authorization procedure, where necessary.</t>
+  </si>
+  <si>
+    <t>The FAIR Guiding Principles put specific emphasis on enhancing the ability of machines to use digital objects. In the context of software, there are often conditions of access, for instance, requiring a license server to be contacted, requirement for payment before use, or restrictions based on the privilege level of the user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The protocol for accessing the software needs to allow for authentification and authorization (payment, priviledge level, etc.) </t>
+  </si>
+  <si>
+    <t>A2. Metadata are accessible, even when the software is no longer available.</t>
+  </si>
+  <si>
+    <t>Availability of software may change over time, because there is a cost to maintaining access or because the software has degraded and is no longer safely usable, or because dependencies are no longer available. The metadata describing the software is generally easier and cheaper to store and maintain than the software itself (e.g., in the software repository, or in a software registry or catalog) and there is value in understanding the details of the software even if it is no longer accessible.</t>
+  </si>
+  <si>
+    <t>Example of Comet: The metadata in bio.tools is independent from the Comet repository, and
+will stay accessible should the software itself become inaccessible (A2)
+Example of PuReGoMe: The software can be downloaded from the project repository (A1), while metadata is accessible independently from the registry (A2).</t>
+  </si>
+  <si>
+    <t>Metadata must remain accessible even when the software is not. This can be achieved by using a repository that keeps metadata separate from the software or using a registry.</t>
+  </si>
+  <si>
+    <t>INTEROPERABLE</t>
+  </si>
+  <si>
+    <t>I1. Software reads, writes and exchanges data in a way that meets domain-relevant community standards.</t>
+  </si>
+  <si>
+    <t>Examples of community standards for data are curated by the FAIRSharing Registry at https://fairsharing.org/standards/.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software interoperates through the exchange of data. This includes the use of data and metadata types, controlled vocabularies, and formats that are formally defined through standards to facilitate the exchange. Whereas F4 requires that metadata describing the software are FAIR, this principle ensures that the way that software interacts with other software is clearly described. A domain-relevant standard is an agreed standard that addresses the needs of a given community (or communities).
+Where software interacts via APIs, these should be documented so that their capabilities can be inspected and understood by humans and machines, and they should be open APIs where possible. </t>
+  </si>
+  <si>
+    <t>Software must read, write, and exchange data in a way that meets relevant community standards, which needs to be described in the metadata. Where software interacts with APIs, these should be documented</t>
+  </si>
+  <si>
+    <t>I2. Software includes qualified references to other objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some software includes references to external data objects required to execute the software (e.g., parameter files for certain applications). Ideally, the data would be FAIR as well, and references to external data would be fully qualified. Qualified references should be to digital objects (e.g., metadata, other software, data), as well as to non-digital objects that have a virtual presence in digital systems (e.g., samples, reagents, instruments, etc.) with which the software interacts. These qualified references should be described using identifiers and/or controlled vocabularies. “Qualified” means specifying the authoritative source for an identifier or vocabulary item, possibly including a resolvable reference to further information about the source. Ideally this is in a form that includes a resolver within the reference (e.g., in the form of a persistent identifier, or URL). This information can also improve the reusability of software by explicitly including references to articles and data sets that document its use. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2753,6 +2843,14 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2803,7 +2901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2825,14 +2923,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2841,9 +2933,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4591,8 +4701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59386CBF-1CAF-4178-831E-E5A70CAF0294}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="58" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="D3" zoomScale="58" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5360,7 +5470,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>793</v>
+        <v>836</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>139</v>
@@ -5394,10 +5504,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868A66FF-FB53-4D7D-93AD-C2CA3F6CAE27}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5408,198 +5518,709 @@
     <col min="4" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="143" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="6" spans="1:3" ht="143" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B7" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="87" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="17" spans="1:3" ht="145" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="B17" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+    <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="B19" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="145" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="23" spans="1:3" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>811</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="24" spans="1:3" ht="91" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C24" s="9" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+    <row r="30" spans="1:3" ht="91" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
-        <v>813</v>
-      </c>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
+      <c r="B31" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="35" spans="1:3" ht="52" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>814</v>
-      </c>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" ht="91" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="B35" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" ht="91" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+    <row r="37" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>815</v>
-      </c>
-      <c r="C23" s="14"/>
+      <c r="B37" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="39" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B39" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="C39" s="17"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="C45" s="16"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="52" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="C51" s="16"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="C53" s="15"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="52" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="C57" s="16"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="C59" s="15"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="65" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="65" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="C63" s="16"/>
+    </row>
+    <row r="64" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+    </row>
+    <row r="65" spans="1:3" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+    </row>
+    <row r="66" spans="1:3" s="18" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B66" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="C66" s="17"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="C68" s="15"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="104" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>842</v>
+      </c>
+      <c r="C72" s="16"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="C74" s="15"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="130" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="65" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+    </row>
+    <row r="89" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+    </row>
+    <row r="95" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="33">
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9201,7 +9822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594EE843-E3DA-42D6-9C6E-79F5CD2EA4F7}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView topLeftCell="L39" zoomScale="55" workbookViewId="0">
+    <sheetView topLeftCell="T1" zoomScale="55" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -9222,7 +9843,7 @@
     <col min="26" max="16384" width="63.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
@@ -11145,7 +11766,7 @@
     <col min="28" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>75</v>
       </c>

--- a/docs/review-data.xlsx
+++ b/docs/review-data.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calmi2\Documents\GitHub\FAIR-BioRS-data\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\FAIR-BioRS-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0DF89E-ED5A-4FCE-A319-743EC37F59B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601C8F1B-AFA5-4C44-B201-01B9DECFDBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="2" r:id="rId1"/>
     <sheet name="searchStrategy" sheetId="1" r:id="rId2"/>
     <sheet name="fair4rsStudiesReview" sheetId="3" r:id="rId3"/>
     <sheet name="fair4rsStudiesReview-v2" sheetId="7" r:id="rId4"/>
-    <sheet name="resourcesList" sheetId="4" r:id="rId5"/>
-    <sheet name="resourcesReview" sheetId="5" r:id="rId6"/>
-    <sheet name="resourcesReviewKeywords" sheetId="6" r:id="rId7"/>
+    <sheet name="fair4rsStudiesReviewSummary" sheetId="8" r:id="rId5"/>
+    <sheet name="resourcesList" sheetId="4" r:id="rId6"/>
+    <sheet name="resourcesReview" sheetId="5" r:id="rId7"/>
+    <sheet name="resourcesReviewKeywords" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="882">
   <si>
     <t>reviewCategory</t>
   </si>
@@ -2693,12 +2694,6 @@
     <t>F1.2. Different versions of the software are assigned distinct identifiers.</t>
   </si>
   <si>
-    <t>To make different versions of the same software (or component) findable, each version needs to be assigned a different identifier. The relationship between versions is embodied in the associated metadata. What is considered a “version” is defined by the owner of the software: in many cases this will be something that the owner wants to specifically identify and use and/or “release” or “publish” so that others can use and reference/cite.
-There are existing software engineering practices (e.g., version control, semantic versioning)
-around the management and versioning of software that may form part of the implementation of
-these relationships.</t>
-  </si>
-  <si>
     <t>F2. Software is described with rich metadata</t>
   </si>
   <si>
@@ -2708,9 +2703,6 @@
     <t>F3. Metadata clearly and explicitly include the identifier of the software they describe</t>
   </si>
   <si>
-    <t>Assign a unique unique and long-lasting identifier to your software. This can be done by sharing the software on a repository or registry that assigns such identifiers.</t>
-  </si>
-  <si>
     <t>Assign distinct identifiers to different components of your software (sofware, software versions, commits, files, etc.). Which components need identifier is up to the developer(s) of the software based on which components they believe are needed to be uniquely indentified and found.</t>
   </si>
   <si>
@@ -2726,15 +2718,6 @@
     <t>Making the metadata about the software FAIR, including making it readable and discoverable by both humans and machines, improves the findability of software by supporting searching and indexing by others. It allows the metadata to be published in or harvested by a registry or catalog or repository, or by a search engine. FAIR metadata also enables and encourages citation of research software</t>
   </si>
   <si>
-    <t>Provide descriptive metadata that follow community standards and use controlled vocabulary. The FAIR4RS principles do not define which standards should be used, as this is better captured in guidance for implementing the principles coming out of each community. Repositories and registeries can help with that.</t>
-  </si>
-  <si>
-    <t>Include the indentifier of the software in the metadata so that the association between the software and its metadata is c lear. This also means that the metadata describes how the associated software can be obtained. Repositories and registeries can help with that.</t>
-  </si>
-  <si>
-    <t>Make the metadata FAIR, searchable, and indexable such that it is readable and discoverable by both humans and machines and such that it enables citation of the software. Repositories and registeries can help with that.</t>
-  </si>
-  <si>
     <t>FINDABLE</t>
   </si>
   <si>
@@ -2750,9 +2733,6 @@
     <t>Accessible intro paragraph: For software to be accessible, it may be made available in any form (including, but not limited to source code, executable, library, or service) as long as the conditions for access are clearly stated and transparent</t>
   </si>
   <si>
-    <t xml:space="preserve">Make the software available in any form (source code, execuatable, library, service, etc.) as long as accessing is possiblevia its indentifier through commonly used protocols such as HTTPS and does not require specialized or proprietary tools or communication methods. </t>
-  </si>
-  <si>
     <t>A1.1. The protocol is open, free, and universally implementable</t>
   </si>
   <si>
@@ -2766,9 +2746,6 @@
   </si>
   <si>
     <t>The FAIR Guiding Principles put specific emphasis on enhancing the ability of machines to use digital objects. In the context of software, there are often conditions of access, for instance, requiring a license server to be contacted, requirement for payment before use, or restrictions based on the privilege level of the user.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The protocol for accessing the software needs to allow for authentification and authorization (payment, priviledge level, etc.) </t>
   </si>
   <si>
     <t>A2. Metadata are accessible, even when the software is no longer available.</t>
@@ -2782,9 +2759,6 @@
 Example of PuReGoMe: The software can be downloaded from the project repository (A1), while metadata is accessible independently from the registry (A2).</t>
   </si>
   <si>
-    <t>Metadata must remain accessible even when the software is not. This can be achieved by using a repository that keeps metadata separate from the software or using a registry.</t>
-  </si>
-  <si>
     <t>INTEROPERABLE</t>
   </si>
   <si>
@@ -2798,13 +2772,154 @@
 Where software interacts via APIs, these should be documented so that their capabilities can be inspected and understood by humans and machines, and they should be open APIs where possible. </t>
   </si>
   <si>
-    <t>Software must read, write, and exchange data in a way that meets relevant community standards, which needs to be described in the metadata. Where software interacts with APIs, these should be documented</t>
-  </si>
-  <si>
     <t>I2. Software includes qualified references to other objects.</t>
   </si>
   <si>
     <t xml:space="preserve">Some software includes references to external data objects required to execute the software (e.g., parameter files for certain applications). Ideally, the data would be FAIR as well, and references to external data would be fully qualified. Qualified references should be to digital objects (e.g., metadata, other software, data), as well as to non-digital objects that have a virtual presence in digital systems (e.g., samples, reagents, instruments, etc.) with which the software interacts. These qualified references should be described using identifiers and/or controlled vocabularies. “Qualified” means specifying the authoritative source for an identifier or vocabulary item, possibly including a resolvable reference to further information about the source. Ideally this is in a form that includes a resolver within the reference (e.g., in the form of a persistent identifier, or URL). This information can also improve the reusability of software by explicitly including references to articles and data sets that document its use. </t>
+  </si>
+  <si>
+    <t>REUSABLE</t>
+  </si>
+  <si>
+    <t>R1. Software is described with a plurality of accurate and relevant attributes</t>
+  </si>
+  <si>
+    <t>R1.1. Software is given a clear and accessible license.</t>
+  </si>
+  <si>
+    <t>R1.2. Software is associated with detailed provenance.</t>
+  </si>
+  <si>
+    <t>R2. Software includes qualified references to other software.</t>
+  </si>
+  <si>
+    <t>It is easier to reuse (and find) software if there are many descriptive labels attached to it. Relevant attributes can be determined by repositories, and by communities who create and reuse software. Plurality means that, where possible, multiple terms for the same, similar, or overlapping concepts should be provided to enable the broadest possible reuse. Metadata and documentation are distinct, potentially complementary, concepts. Metadata about software can be included in documentation, or in the code itself, or in a separate location. Metadata included in the documentation are generally not machine readable, or indexable. This does, however, support the reusability of software particularly from a human perspective</t>
+  </si>
+  <si>
+    <t>To enable reuse, software must have a license that clearly describes how it can be used and reused, ideally with conditions that are readable by humans and machines. Licenses are often referred to by name, but machine readable licenses can be specified by reference to a standard vocabulary such as the SPDX License List4 (SPDX Consortium, 2020). To support a wide range of reuse scenarios, the license should be as unrestrictive as possible and, to avoid license proliferation, choosing a widely used and recognized license is strongly recommended. This license must also be compatible with the requirements of the licenses of the software’s dependencies so that the software can be legally combined.</t>
+  </si>
+  <si>
+    <t>Software provenance is a type of metadata that describes why and how the software came to be, as well as who contributed what, when and where. Provenance is sometimes referred to as lineage or pedigree. This extends beyond capturing a log of changes to source code as it is developed. Good provenance metadata clarifies the origins and intent behind the development of the software, and establishes authenticity and trust. As a type of metadata this overlaps with the metadata called for in guiding principles F2 and F4</t>
+  </si>
+  <si>
+    <t>Include metadata about the provenance of the software i.e., why and how the software came to be, as well as who contributed what, when and where.</t>
+  </si>
+  <si>
+    <t>R3. Software meets domain-relevant community standards.</t>
+  </si>
+  <si>
+    <t>Software is rarely standalone and in most cases is built upon other software (e.g., dependencies), it should include appropriate references to other software (e.g., requirements, imports, libraries) which are necessary to compile and run the software. “Qualified” here means specifying the authoritative source for an identifier, possibly including a resolvable reference to further information about the source. To follow this principle, it is desirable but not required that the other software referenced implements the FAIR4RS Principles. In many programming languages, base methods or functions take a reference to a named entity, possibly in combination with a version number or qualifying domain and resolves this to a source. This principle goes beyond this in calling for qualified references to external  dependencies, meaning that the reference itself resolves to the source via the qualifying authority. Reference to anything other than software is addressed in I2</t>
+  </si>
+  <si>
+    <t>Software, including its documentation and license, should meet domain-relevant community standards and coding practices (e.g., choice of programming language, standards for testing, usage of file formats, accessibility [in the sense of usable by as many people as possible]).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software, including its documentation and license, should meet domain-relevant community standards and coding practices (e.g., choice of programming language, standards for testing, usage of file formats, accessibility [in the sense of usable by as many people as possible]) that enable reuse. While the FAIR4RS Principles do not specify particular community standards, the intent is to ensure that practitioners are aware of what others are doing and using in the community, e.g., through initiatives like FAIRsharing (Sansone et al., 2019), whilst acknowledging that community standards are (and should be) under constant development.
+</t>
+  </si>
+  <si>
+    <t>Communities can encompass research domains, programming languages, and technical approaches. Examples of community standards might include: BioSchemas from ELIXIR for describing resources in the life sciences and schema.org for general description of resources; Common Workflow Language; and the package managers commonly used by a programming language such as Maven (Java), npm (Javascript), PyPI (Python) and CRAN (R). It is important to note that the FAIR Guiding Principles address research outputs, not research processes, so standards should also be limited to best practice about the software itself, not the process of designing, developing, or maintaining it, such as the R community standards for creating packages5 or the PEP 8 Style Guide for Python Code</t>
+  </si>
+  <si>
+    <t>To make different versions of the same software (or component) findable, each version needs to be assigned a different identifier. The relationship between versions is embodied in the associated metadata. What is considered a “version” is defined by the owner of the software: in many cases this will be something that the owner wants to specifically identify and use and/or “release” or “publish” so that others can use and reference/cite.</t>
+  </si>
+  <si>
+    <t>There are existing software engineering practices (e.g., version control, semantic versioning)
+around the management and versioning of software that may form part of the implementation of
+these relationships.</t>
+  </si>
+  <si>
+    <t>Assign a unique (not used to identify any other object even on a different system) and persistent (long-lasting, can be used to get to the software) identifier to your software. This can be done by sharing the software on a repository or registry that assigns such identifiers.</t>
+  </si>
+  <si>
+    <t>The protocol for accessing the software needs to allow for authentification and authorization (payment, priviledge level, etc.) when necessary</t>
+  </si>
+  <si>
+    <t>Metadata must remain accessible even when the software is not. This can be achieved by using a registry.</t>
+  </si>
+  <si>
+    <t>Data that is written, read, and exchanged by the software (with external software e.g.) must meets relevant community standards (e.g. data should be in a file format that is standard for that data type). The standards followed should be documented. Where software interacts with APIs, these should be documented</t>
+  </si>
+  <si>
+    <t>Make the software accessible via its identifier (F1) through commonly used protocols such as HTTPS. Accessing the software should not require specialized or proprietary tools or communication methods. This can be done by sharing the software on a repository</t>
+  </si>
+  <si>
+    <t>Include reference to  external digital data objects  (data, metadata) and non-digital objects (samples, reagents, instruments) required to execute the software or that relates to the software. Ideally, references to external objects would be fully qualified (e.g., software X is implemented using software A (a programming language); software X uses software B (a library/dependency). Reference to other software is addressed in R2.</t>
+  </si>
+  <si>
+    <t>Describe software with a plurarity of attributes, i.e. use multiple terms for the same, similar, or overlapping concept. This can be done for instance by including both machine readable metadata and human-friendly documentation. GitHub can, for instance, be used to record details of the software development history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide a license that clearly describes how software can be reused, ideally with conditions that are readable by both humans and machines. Machine readable licenses can be specified for instance by using their standard name from the SPDX License List. Make sure that the license is compatible with the dependencies of the software. Although not required, it is recommended to choose a widely used and recognized license and choose a license that is as unrestrictive as possible. </t>
+  </si>
+  <si>
+    <t>Include qualified references to other software required to compile and run the software. Such references can be included in thesoftware code and/or in an external metadata files such as the CodeMeta.</t>
+  </si>
+  <si>
+    <t>Provide descriptive metadata that follow community standards and use controlled vocabulary. The FAIR4RS principles do not define which standards should be used, as this is better captured in guidance for implementing the principles coming out of each community. Repositories and registries can help with that.</t>
+  </si>
+  <si>
+    <t>Make the metadata FAIR, searchable, and indexable such that it is readable and discoverable by both humans and machines and such that it enables citation of the software. Repositories and registries can help with that.</t>
+  </si>
+  <si>
+    <t>Include the indentifier of the software in the metadata so that the association between the software and its metadata is clear. This also means that the metadata describes how the associated software can be obtained. Repositories and registries can help with that.</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include metadata that follows community standards and uses controlled vocabulary (F2). The metadata needs to include plurality of attributes, i.e. use multiple terms for the same, similar, or overlapping concept (R1). The metadata is required to include several elements: relation between different versions of a software (F1.2), the identifier of the software and describes how it can be obtained (F3), information about citing the software (F4), the standards followed by the data interacting with the software (I1), qualified references to other objects required to run the software (I2), detailed provenance of the software (i.e., why and how the software came to be, as well as who contributed what, when and where) (R1.2), and qualified references to other software required to run the software (R2). Metadata needs to be included in both machine readable and human-readable e.g. software documentation format (F4, R1). The documentation needs to follow needs to meet domain-relevant community standards (R3). Version control systems such as GitHub can be used to record details of the software development history (R1). </t>
+  </si>
+  <si>
+    <t>Provide a clear license that is, preferably, widely used and as unrestrictive as possible (R1.1). The license must be provided such that it is readable by both humans and machines (R1.1), is compatible with the dependencies of the software (R1.1) and meets relevant standards (R3).</t>
+  </si>
+  <si>
+    <t>How to provide license in human readable and machine readable formats that are standard? What are widely used licenses that are suggested?</t>
+  </si>
+  <si>
+    <t>What repositories can be used for sharing biomedical research software?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share software on a suitable repository that issue a unique and long-lasting identifier (F1), helps with including rich metadata that follows community standards and uses controlled vocabulary (F2), includes the identifier of the software, and describes how it can be obtained (F3), and is FAIR, searchable, and indexable (F4). A suitable repository can also help with making the software accessible via its identifier through a standardized protocol (A1) that is open and free (A1.1.) and allow for authentication and authorization when necessary (A1.2). Share such that different components (software, commits, files, etc.) of the software (F1.1) and different versions of a software (F1.2) are assigned distinct identifiers as deemed suitable by the developers. Assigning identifier to different versions can be facilitated by version control systems such as GitHub. </t>
+  </si>
+  <si>
+    <t>What registeries can be used for registering biomedical research software?</t>
+  </si>
+  <si>
+    <t>Register the software on a suitable registry to make the software metadata accessible even when the software is no longer available (A2). A suitable registry can also act as an alternative or complement to a repository for obtaining a unique and long-lasting identifier (F1), including rich metadata that follows community standards and uses controlled vocabulary (F2), includes the identifier of the software and describes how it can be obtained (F3), and is FAIR, searchable, and indexable (F4).</t>
+  </si>
+  <si>
+    <t>Develop the software such that it meets domain-relevant community standards and coding practices, e.g., choice of programming language, standards for testing, usage of file format, accessibility by as many people as possible (R3). Develop the software such that the data it reads, writes, and exchanges (e.g., with other software) meets relevant community standards (e.g., data should be in a file format that is standard for that data type) (I1).</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Develop software following standards and best practices</t>
+  </si>
+  <si>
+    <t>Include metadata</t>
+  </si>
+  <si>
+    <t>Provide a license</t>
+  </si>
+  <si>
+    <t>Share on a repository</t>
+  </si>
+  <si>
+    <t>Share on a registry</t>
+  </si>
+  <si>
+    <t>What are relevant standards to follow when developing biomedical research software?
+What are relevant coding best practices for developing biomedical research software?
+What are relevant standards for data that the software read, writes, and exchange?</t>
+  </si>
+  <si>
+    <t>What relevant standards exist for metadata format and structure for biomedical research software? 
+How can biomedical research software be documented following relevant standards?</t>
   </si>
 </sst>
 </file>
@@ -2842,19 +2957,17 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2929,32 +3042,32 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3242,17 +3355,17 @@
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="127" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>774</v>
       </c>
@@ -3272,7 +3385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>773</v>
       </c>
@@ -3286,7 +3399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>773</v>
       </c>
@@ -3300,7 +3413,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>773</v>
       </c>
@@ -3314,7 +3427,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>773</v>
       </c>
@@ -3328,7 +3441,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>773</v>
       </c>
@@ -3342,7 +3455,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>773</v>
       </c>
@@ -3356,7 +3469,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>773</v>
       </c>
@@ -3370,7 +3483,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>773</v>
       </c>
@@ -3384,7 +3497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>773</v>
       </c>
@@ -3404,7 +3517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>773</v>
       </c>
@@ -3424,7 +3537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>773</v>
       </c>
@@ -3444,7 +3557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>773</v>
       </c>
@@ -3464,7 +3577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>773</v>
       </c>
@@ -3484,7 +3597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3504,7 +3617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3518,7 +3631,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -3532,7 +3645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -3546,7 +3659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -3560,7 +3673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -3574,7 +3687,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -3588,7 +3701,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -3602,7 +3715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -3616,7 +3729,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -3630,7 +3743,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -3644,7 +3757,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -3658,7 +3771,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -3669,7 +3782,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -3683,7 +3796,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3697,7 +3810,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -3711,7 +3824,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -3725,7 +3838,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -3739,7 +3852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -3753,7 +3866,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -3767,7 +3880,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -3781,7 +3894,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -3795,7 +3908,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -3809,7 +3922,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -3823,7 +3936,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -3837,7 +3950,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -3851,7 +3964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -3865,7 +3978,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -3879,7 +3992,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -3893,7 +4006,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -3907,7 +4020,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -3921,7 +4034,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -3935,7 +4048,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -3949,7 +4062,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -3963,7 +4076,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -3977,7 +4090,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -3991,7 +4104,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -4005,7 +4118,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -4019,7 +4132,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -4033,7 +4146,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -4047,7 +4160,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -4061,7 +4174,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -4075,7 +4188,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -4089,7 +4202,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -4103,7 +4216,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -4117,7 +4230,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>129</v>
       </c>
@@ -4131,7 +4244,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -4145,7 +4258,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -4159,7 +4272,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -4173,7 +4286,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -4187,7 +4300,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -4201,7 +4314,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -4215,7 +4328,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>129</v>
       </c>
@@ -4229,7 +4342,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -4243,7 +4356,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -4257,7 +4370,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -4271,7 +4384,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>129</v>
       </c>
@@ -4285,7 +4398,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -4299,7 +4412,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -4313,7 +4426,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>129</v>
       </c>
@@ -4327,7 +4440,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -4341,7 +4454,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>129</v>
       </c>
@@ -4355,7 +4468,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>129</v>
       </c>
@@ -4369,7 +4482,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>129</v>
       </c>
@@ -4383,7 +4496,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>129</v>
       </c>
@@ -4397,7 +4510,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -4411,7 +4524,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -4425,7 +4538,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -4439,7 +4552,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>129</v>
       </c>
@@ -4467,22 +4580,22 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.7265625" style="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4517,7 +4630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4552,7 +4665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4587,7 +4700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4622,7 +4735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4657,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4701,29 +4814,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59386CBF-1CAF-4178-831E-E5A70CAF0294}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScale="58" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="58" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="62.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1"/>
     <col min="3" max="3" width="88" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.54296875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="84.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="43.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="48.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="47.90625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="45.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="89.5703125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="84.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="48.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="47.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="45.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="51" style="1" customWidth="1"/>
-    <col min="14" max="14" width="131.6328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="36.08984375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="131.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="36.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -4770,7 +4883,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>134</v>
       </c>
@@ -4814,7 +4927,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
@@ -4855,7 +4968,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>148</v>
       </c>
@@ -4902,7 +5015,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
@@ -4946,7 +5059,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
@@ -4990,7 +5103,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>148</v>
       </c>
@@ -5034,7 +5147,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>148</v>
       </c>
@@ -5075,7 +5188,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>148</v>
       </c>
@@ -5116,7 +5229,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>180</v>
       </c>
@@ -5160,7 +5273,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="174" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>185</v>
       </c>
@@ -5207,7 +5320,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>185</v>
       </c>
@@ -5245,7 +5358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>185</v>
       </c>
@@ -5283,7 +5396,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>185</v>
       </c>
@@ -5327,7 +5440,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>185</v>
       </c>
@@ -5374,7 +5487,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>185</v>
       </c>
@@ -5412,7 +5525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>185</v>
       </c>
@@ -5450,7 +5563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>224</v>
       </c>
@@ -5470,7 +5583,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>139</v>
@@ -5504,33 +5617,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868A66FF-FB53-4D7D-93AD-C2CA3F6CAE27}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.6328125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="87.6328125" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="87.5703125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="17" t="s">
-        <v>822</v>
-      </c>
-      <c r="C1" s="17"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>804</v>
       </c>
@@ -5538,7 +5655,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>801</v>
       </c>
@@ -5549,7 +5666,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="143" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>802</v>
       </c>
@@ -5560,26 +5677,26 @@
         <v>796</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>805</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>813</v>
+        <v>852</v>
       </c>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>804</v>
       </c>
@@ -5587,18 +5704,18 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>802</v>
       </c>
@@ -5609,22 +5726,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>814</v>
-      </c>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+      <c r="B13" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
         <v>808</v>
       </c>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
         <v>804</v>
       </c>
@@ -5632,18 +5749,18 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="145" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>809</v>
+      <c r="B17" s="9" t="s">
+        <v>850</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>802</v>
       </c>
@@ -5654,22 +5771,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>815</v>
-      </c>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
-        <v>810</v>
-      </c>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
         <v>804</v>
       </c>
@@ -5677,18 +5794,18 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>811</v>
+      <c r="B23" s="9" t="s">
+        <v>810</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="91" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>802</v>
       </c>
@@ -5699,22 +5816,22 @@
         <v>792</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>819</v>
-      </c>
-      <c r="C25" s="14"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B27" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
         <v>804</v>
       </c>
@@ -5722,18 +5839,18 @@
         <v>800</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>801</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="91" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>802</v>
       </c>
@@ -5744,22 +5861,22 @@
         <v>792</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>820</v>
-      </c>
-      <c r="C31" s="14"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="13" t="s">
-        <v>817</v>
-      </c>
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B33" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="10" t="s">
         <v>804</v>
       </c>
@@ -5767,16 +5884,16 @@
         <v>800</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="52" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>801</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" ht="91" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>802</v>
       </c>
@@ -5787,28 +5904,28 @@
         <v>792</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>821</v>
-      </c>
-      <c r="C37" s="14"/>
-    </row>
-    <row r="39" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B39" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="C39" s="17"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="15" t="s">
-        <v>824</v>
-      </c>
-      <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="C37" s="17"/>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
         <v>804</v>
       </c>
@@ -5816,44 +5933,44 @@
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>801</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>802</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="7" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>805</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>827</v>
+        <v>856</v>
       </c>
       <c r="C45" s="16"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="15" t="s">
-        <v>828</v>
-      </c>
-      <c r="C47" s="15"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="C47" s="14"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
         <v>804</v>
       </c>
@@ -5861,44 +5978,44 @@
         <v>800</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="52" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>801</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>802</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>805</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C51" s="16"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="15" t="s">
-        <v>831</v>
-      </c>
-      <c r="C53" s="15"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
         <v>804</v>
       </c>
@@ -5906,44 +6023,44 @@
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="52" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>801</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>802</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>805</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>833</v>
+        <v>853</v>
       </c>
       <c r="C57" s="16"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="15" t="s">
-        <v>834</v>
-      </c>
-      <c r="C59" s="15"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B59" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="C59" s="14"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
         <v>804</v>
       </c>
@@ -5951,18 +6068,18 @@
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="65" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>801</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="65" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>802</v>
       </c>
@@ -5970,248 +6087,353 @@
         <v>31</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>805</v>
       </c>
       <c r="B63" s="16" t="s">
+        <v>854</v>
+      </c>
+      <c r="C63" s="16"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+    </row>
+    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B65" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="C65" s="12"/>
+    </row>
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B67" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>855</v>
+      </c>
+      <c r="C71" s="16"/>
+    </row>
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B73" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="C73" s="14"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B74" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="C77" s="16"/>
+    </row>
+    <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B79" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="C79" s="12"/>
+    </row>
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B81" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="C63" s="16"/>
-    </row>
-    <row r="64" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-    </row>
-    <row r="65" spans="1:3" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-    </row>
-    <row r="66" spans="1:3" s="18" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B66" s="17" t="s">
+      <c r="C81" s="14"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="C85" s="16"/>
+    </row>
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B87" s="14" t="s">
         <v>838</v>
       </c>
-      <c r="C66" s="17"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="15" t="s">
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="C91" s="16"/>
+    </row>
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B93" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="C68" s="15"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="8" t="s">
+      <c r="C93" s="14"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B94" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C94" s="8" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="104" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
+    <row r="95" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="C70" s="9" t="s">
+      <c r="B95" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="C97" s="16"/>
+    </row>
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B99" s="14" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="7" t="s">
+      <c r="C99" s="14"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B100" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="C101" s="9"/>
+    </row>
+    <row r="102" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B102" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
+      <c r="C102" s="7" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="B72" s="16" t="s">
-        <v>842</v>
-      </c>
-      <c r="C72" s="16"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="15" t="s">
-        <v>843</v>
-      </c>
-      <c r="C74" s="15"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="8" t="s">
+      <c r="B103" s="16" t="s">
+        <v>860</v>
+      </c>
+      <c r="C103" s="16"/>
+    </row>
+    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B105" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="C105" s="14"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B106" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C106" s="8" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="130" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
+    <row r="107" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>844</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="65" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
+      <c r="B107" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B108" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
+      <c r="C108" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C82" s="9"/>
-    </row>
-    <row r="83" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="7" t="s">
-        <v>805</v>
-      </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-    </row>
-    <row r="89" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
-        <v>805</v>
-      </c>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-    </row>
-    <row r="95" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="7" t="s">
-        <v>805</v>
-      </c>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
+      <c r="B109" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="C109" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
+  <mergeCells count="38">
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B109:C109"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B19:C19"/>
@@ -6221,6 +6443,31 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B79:C79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6228,6 +6475,109 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3402B4BF-7BA0-4B6A-ADE0-C35D566CD98E}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="29.140625" style="18"/>
+    <col min="3" max="3" width="54.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="29.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
+        <v>874</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>875</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>876</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>878</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>871</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49D82B-1314-44E9-9C10-AF21C213EB48}">
   <dimension ref="A1:E210"/>
   <sheetViews>
@@ -6235,15 +6585,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="101.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6260,7 +6610,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6277,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6294,7 +6644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6311,7 +6661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6328,7 +6678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6345,7 +6695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6362,7 +6712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6379,7 +6729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -6396,7 +6746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -6413,7 +6763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -6430,7 +6780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6447,7 +6797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6464,7 +6814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -6481,7 +6831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -6498,7 +6848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6515,7 +6865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -6532,7 +6882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -6549,7 +6899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -6566,7 +6916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -6583,7 +6933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -6600,7 +6950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -6617,7 +6967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -6634,7 +6984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -6651,7 +7001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -6668,7 +7018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6685,7 +7035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -6702,7 +7052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -6719,7 +7069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -6736,7 +7086,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -6753,7 +7103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -6770,7 +7120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -6787,7 +7137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -6804,7 +7154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -6821,7 +7171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -6838,7 +7188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -6855,7 +7205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -6872,7 +7222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -6889,7 +7239,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -6906,7 +7256,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -6923,7 +7273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -6940,7 +7290,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -6957,7 +7307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -6974,7 +7324,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -6991,7 +7341,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -7008,7 +7358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -7025,7 +7375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -7042,7 +7392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -7059,7 +7409,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -7076,7 +7426,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -7093,7 +7443,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -7110,7 +7460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -7127,7 +7477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -7144,7 +7494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -7161,7 +7511,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -7178,7 +7528,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -7195,7 +7545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -7212,7 +7562,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -7229,7 +7579,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -7246,7 +7596,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -7263,7 +7613,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -7280,7 +7630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -7297,7 +7647,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -7314,7 +7664,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -7331,7 +7681,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -7348,7 +7698,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -7365,7 +7715,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -7382,7 +7732,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -7399,7 +7749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -7416,7 +7766,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -7433,7 +7783,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -7450,7 +7800,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -7467,7 +7817,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -7484,7 +7834,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -7501,7 +7851,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -7518,7 +7868,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -7535,7 +7885,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -7552,7 +7902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -7569,7 +7919,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -7586,7 +7936,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -7603,7 +7953,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -7620,7 +7970,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -7637,7 +7987,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -7654,7 +8004,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -7671,7 +8021,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -7688,7 +8038,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -7705,7 +8055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -7722,7 +8072,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -7739,7 +8089,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -7756,7 +8106,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -7773,7 +8123,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -7790,7 +8140,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -7807,7 +8157,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -7824,7 +8174,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -7841,7 +8191,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -7858,7 +8208,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -7875,7 +8225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -7892,7 +8242,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -7909,7 +8259,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -7926,7 +8276,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -7943,7 +8293,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -7960,7 +8310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -7977,7 +8327,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3</v>
       </c>
@@ -7994,7 +8344,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3</v>
       </c>
@@ -8011,7 +8361,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3</v>
       </c>
@@ -8028,7 +8378,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -8045,7 +8395,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3</v>
       </c>
@@ -8062,7 +8412,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -8079,7 +8429,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -8096,7 +8446,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
@@ -8113,7 +8463,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3</v>
       </c>
@@ -8130,7 +8480,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
@@ -8147,7 +8497,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3</v>
       </c>
@@ -8164,7 +8514,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3</v>
       </c>
@@ -8181,7 +8531,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3</v>
       </c>
@@ -8198,7 +8548,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -8215,7 +8565,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -8232,7 +8582,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3</v>
       </c>
@@ -8249,7 +8599,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3</v>
       </c>
@@ -8266,7 +8616,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3</v>
       </c>
@@ -8283,7 +8633,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -8300,7 +8650,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -8317,7 +8667,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -8334,7 +8684,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -8351,7 +8701,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -8368,7 +8718,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -8385,7 +8735,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3</v>
       </c>
@@ -8402,7 +8752,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3</v>
       </c>
@@ -8419,7 +8769,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3</v>
       </c>
@@ -8436,7 +8786,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -8453,7 +8803,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3</v>
       </c>
@@ -8470,7 +8820,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -8487,7 +8837,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3</v>
       </c>
@@ -8504,7 +8854,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>3</v>
       </c>
@@ -8521,7 +8871,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3</v>
       </c>
@@ -8538,7 +8888,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3</v>
       </c>
@@ -8555,7 +8905,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>3</v>
       </c>
@@ -8572,7 +8922,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3</v>
       </c>
@@ -8589,7 +8939,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
@@ -8606,7 +8956,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3</v>
       </c>
@@ -8623,7 +8973,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3</v>
       </c>
@@ -8640,7 +8990,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3</v>
       </c>
@@ -8657,7 +9007,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -8674,7 +9024,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -8691,7 +9041,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3</v>
       </c>
@@ -8708,7 +9058,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3</v>
       </c>
@@ -8725,7 +9075,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3</v>
       </c>
@@ -8742,7 +9092,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4</v>
       </c>
@@ -8759,7 +9109,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -8776,7 +9126,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4</v>
       </c>
@@ -8793,7 +9143,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>4</v>
       </c>
@@ -8810,7 +9160,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>4</v>
       </c>
@@ -8827,7 +9177,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4</v>
       </c>
@@ -8844,7 +9194,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4</v>
       </c>
@@ -8861,7 +9211,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>4</v>
       </c>
@@ -8878,7 +9228,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>4</v>
       </c>
@@ -8895,7 +9245,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>4</v>
       </c>
@@ -8912,7 +9262,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>4</v>
       </c>
@@ -8929,7 +9279,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>4</v>
       </c>
@@ -8946,7 +9296,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4</v>
       </c>
@@ -8963,7 +9313,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>4</v>
       </c>
@@ -8980,7 +9330,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>4</v>
       </c>
@@ -8997,7 +9347,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>4</v>
       </c>
@@ -9014,7 +9364,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>4</v>
       </c>
@@ -9031,7 +9381,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>4</v>
       </c>
@@ -9048,7 +9398,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>4</v>
       </c>
@@ -9065,7 +9415,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4</v>
       </c>
@@ -9082,7 +9432,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>4</v>
       </c>
@@ -9099,7 +9449,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>4</v>
       </c>
@@ -9116,7 +9466,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>4</v>
       </c>
@@ -9133,7 +9483,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>4</v>
       </c>
@@ -9150,7 +9500,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>4</v>
       </c>
@@ -9167,7 +9517,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>4</v>
       </c>
@@ -9184,7 +9534,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>4</v>
       </c>
@@ -9201,7 +9551,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>4</v>
       </c>
@@ -9218,7 +9568,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>4</v>
       </c>
@@ -9235,7 +9585,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>4</v>
       </c>
@@ -9252,7 +9602,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>4</v>
       </c>
@@ -9269,7 +9619,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>4</v>
       </c>
@@ -9286,7 +9636,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>4</v>
       </c>
@@ -9303,7 +9653,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>4</v>
       </c>
@@ -9320,7 +9670,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>4</v>
       </c>
@@ -9337,7 +9687,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>4</v>
       </c>
@@ -9354,7 +9704,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>4</v>
       </c>
@@ -9371,7 +9721,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4</v>
       </c>
@@ -9388,7 +9738,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>4</v>
       </c>
@@ -9405,7 +9755,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>4</v>
       </c>
@@ -9422,7 +9772,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>4</v>
       </c>
@@ -9439,7 +9789,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>4</v>
       </c>
@@ -9456,7 +9806,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>4</v>
       </c>
@@ -9473,7 +9823,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>4</v>
       </c>
@@ -9490,7 +9840,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>4</v>
       </c>
@@ -9507,7 +9857,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>4</v>
       </c>
@@ -9524,7 +9874,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>4</v>
       </c>
@@ -9541,7 +9891,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>4</v>
       </c>
@@ -9558,7 +9908,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>4</v>
       </c>
@@ -9575,7 +9925,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>4</v>
       </c>
@@ -9592,7 +9942,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4</v>
       </c>
@@ -9609,7 +9959,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>5</v>
       </c>
@@ -9626,7 +9976,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>5</v>
       </c>
@@ -9643,7 +9993,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>5</v>
       </c>
@@ -9660,7 +10010,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>5</v>
       </c>
@@ -9677,7 +10027,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>5</v>
       </c>
@@ -9694,7 +10044,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>5</v>
       </c>
@@ -9711,7 +10061,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>5</v>
       </c>
@@ -9728,7 +10078,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>5</v>
       </c>
@@ -9745,7 +10095,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>5</v>
       </c>
@@ -9762,7 +10112,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>5</v>
       </c>
@@ -9779,7 +10129,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>5</v>
       </c>
@@ -9796,7 +10146,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>5</v>
       </c>
@@ -9811,1914 +10161,6 @@
       </c>
       <c r="E210">
         <v>209</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594EE843-E3DA-42D6-9C6E-79F5CD2EA4F7}">
-  <dimension ref="A1:AA48"/>
-  <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="55" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="63.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="63.6328125" style="1"/>
-    <col min="2" max="2" width="14.1796875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="63.6328125" style="1"/>
-    <col min="5" max="5" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.6328125" style="1"/>
-    <col min="7" max="7" width="54.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="18" width="63.6328125" style="1"/>
-    <col min="19" max="19" width="87.26953125" style="1" customWidth="1"/>
-    <col min="20" max="22" width="63.6328125" style="1"/>
-    <col min="23" max="23" width="95.7265625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="63.6328125" style="1"/>
-    <col min="25" max="25" width="111.90625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="63.6328125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="290" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="232" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2016</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="319" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="174" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="203" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="58" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>4</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="E35" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="E36" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="290" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="290" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E40" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="87" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>5</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="116" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <v>5</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <v>5</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2017</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <v>5</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="E45" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>5</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E46" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>5</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E47" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="E48" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -11727,46 +10169,1954 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594EE843-E3DA-42D6-9C6E-79F5CD2EA4F7}">
+  <dimension ref="A1:AA48"/>
+  <sheetViews>
+    <sheetView zoomScale="55" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.5703125" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="63.5703125" style="1"/>
+    <col min="5" max="5" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.5703125" style="1"/>
+    <col min="7" max="7" width="54.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="18" width="63.5703125" style="1"/>
+    <col min="19" max="19" width="87.28515625" style="1" customWidth="1"/>
+    <col min="20" max="22" width="63.5703125" style="1"/>
+    <col min="23" max="23" width="95.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="63.5703125" style="1"/>
+    <col min="25" max="25" width="111.85546875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="63.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="360" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="315" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="240" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="180" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="135" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="360" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="210" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="210" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="375" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="330" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="330" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="270" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="345" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="360" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0221B120-414C-4095-AF2A-591768752CFE}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
     <sheetView zoomScale="45" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F3"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="19.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="97.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="77.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="83.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="104.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.90625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="166.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="97.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="77.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="83.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="104.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="166.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36" style="1" customWidth="1"/>
-    <col min="17" max="17" width="31.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="63.81640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="119.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="53.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="159.54296875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="60.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="87.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="82.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="64.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="17" max="17" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="63.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="119.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="159.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="60.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="87.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="82.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="64.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
@@ -11849,7 +12199,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11869,7 +12219,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11889,7 +12239,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11927,7 +12277,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11959,7 +12309,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -12000,7 +12350,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -12041,7 +12391,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -12073,7 +12423,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -12105,7 +12455,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -12137,7 +12487,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -12184,7 +12534,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -12228,7 +12578,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -12278,7 +12628,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -12316,7 +12666,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -12348,7 +12698,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -12380,7 +12730,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -12421,7 +12771,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -12453,7 +12803,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -12485,7 +12835,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -12544,7 +12894,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -12579,7 +12929,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -12611,7 +12961,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -12643,7 +12993,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -12687,7 +13037,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -12719,7 +13069,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -12763,7 +13113,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -12813,7 +13163,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -12845,7 +13195,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -12877,7 +13227,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -12912,7 +13262,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -12944,7 +13294,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -13000,7 +13350,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -13032,7 +13382,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -13070,7 +13420,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -13102,7 +13452,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -13134,7 +13484,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -13178,7 +13528,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -13231,7 +13581,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -13278,7 +13628,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -13310,7 +13660,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -13348,7 +13698,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -13389,7 +13739,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -13433,7 +13783,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -13483,7 +13833,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -13515,7 +13865,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -13550,7 +13900,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -13582,7 +13932,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>

--- a/docs/review-data.xlsx
+++ b/docs/review-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calmi2\Documents\GitHub\FAIR-BioRS-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD61C2A-EF0B-4E0F-AAE7-228CE77AC76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359DADA-EB80-40B6-89AD-4720A3BE466C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3033,7 +3033,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3080,6 +3080,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3170,6 +3185,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3185,12 +3203,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4712,20 +4727,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>814</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
@@ -4761,20 +4776,20 @@
       <c r="A7" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>849</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>803</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
@@ -4810,16 +4825,16 @@
       <c r="A13" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>809</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="15" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
@@ -4855,16 +4870,16 @@
       <c r="A19" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>810</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="21" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
@@ -4900,16 +4915,16 @@
       <c r="A25" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>858</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="27" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="19" t="s">
         <v>808</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
@@ -4945,16 +4960,16 @@
       <c r="A31" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="20" t="s">
         <v>860</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="20"/>
     </row>
     <row r="33" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="19" t="s">
         <v>812</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
@@ -4988,22 +5003,22 @@
       <c r="A37" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>859</v>
       </c>
-      <c r="C37" s="19"/>
+      <c r="C37" s="20"/>
     </row>
     <row r="39" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="18" t="s">
         <v>815</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="18"/>
     </row>
     <row r="41" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="16" t="s">
         <v>816</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
@@ -5039,16 +5054,16 @@
       <c r="A45" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="C45" s="16"/>
+      <c r="C45" s="17"/>
     </row>
     <row r="47" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="16" t="s">
         <v>819</v>
       </c>
-      <c r="C47" s="15"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
@@ -5084,16 +5099,16 @@
       <c r="A51" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="17" t="s">
         <v>821</v>
       </c>
-      <c r="C51" s="16"/>
+      <c r="C51" s="17"/>
     </row>
     <row r="53" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="16" t="s">
         <v>822</v>
       </c>
-      <c r="C53" s="15"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
@@ -5129,16 +5144,16 @@
       <c r="A57" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="17" t="s">
         <v>850</v>
       </c>
-      <c r="C57" s="16"/>
+      <c r="C57" s="17"/>
     </row>
     <row r="59" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="16" t="s">
         <v>824</v>
       </c>
-      <c r="C59" s="15"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
@@ -5174,26 +5189,26 @@
       <c r="A63" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="C63" s="16"/>
+      <c r="C63" s="17"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="18" t="s">
         <v>827</v>
       </c>
-      <c r="C65" s="17"/>
+      <c r="C65" s="18"/>
     </row>
     <row r="67" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="16" t="s">
         <v>828</v>
       </c>
-      <c r="C67" s="15"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
@@ -5229,16 +5244,16 @@
       <c r="A71" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="C71" s="16"/>
+      <c r="C71" s="17"/>
     </row>
     <row r="73" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="16" t="s">
         <v>831</v>
       </c>
-      <c r="C73" s="15"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
@@ -5274,22 +5289,22 @@
       <c r="A77" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="17" t="s">
         <v>854</v>
       </c>
-      <c r="C77" s="16"/>
+      <c r="C77" s="17"/>
     </row>
     <row r="79" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="18" t="s">
         <v>833</v>
       </c>
-      <c r="C79" s="17"/>
+      <c r="C79" s="18"/>
     </row>
     <row r="81" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="16" t="s">
         <v>834</v>
       </c>
-      <c r="C81" s="15"/>
+      <c r="C81" s="16"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
@@ -5325,16 +5340,16 @@
       <c r="A85" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="17" t="s">
         <v>855</v>
       </c>
-      <c r="C85" s="16"/>
+      <c r="C85" s="17"/>
     </row>
     <row r="87" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="16" t="s">
         <v>835</v>
       </c>
-      <c r="C87" s="15"/>
+      <c r="C87" s="16"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
@@ -5370,16 +5385,16 @@
       <c r="A91" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="17" t="s">
         <v>856</v>
       </c>
-      <c r="C91" s="16"/>
+      <c r="C91" s="17"/>
     </row>
     <row r="93" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="16" t="s">
         <v>836</v>
       </c>
-      <c r="C93" s="15"/>
+      <c r="C93" s="16"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
@@ -5415,16 +5430,16 @@
       <c r="A97" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="17" t="s">
         <v>841</v>
       </c>
-      <c r="C97" s="16"/>
+      <c r="C97" s="17"/>
     </row>
     <row r="99" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="16" t="s">
         <v>837</v>
       </c>
-      <c r="C99" s="15"/>
+      <c r="C99" s="16"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
@@ -5458,16 +5473,16 @@
       <c r="A103" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="17" t="s">
         <v>857</v>
       </c>
-      <c r="C103" s="16"/>
+      <c r="C103" s="17"/>
     </row>
     <row r="105" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="16" t="s">
         <v>842</v>
       </c>
-      <c r="C105" s="15"/>
+      <c r="C105" s="16"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
@@ -5503,35 +5518,13 @@
       <c r="A109" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="17" t="s">
         <v>844</v>
       </c>
-      <c r="C109" s="16"/>
+      <c r="C109" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B105:C105"/>
@@ -5548,6 +5541,28 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B91:C91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5571,16 +5586,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>871</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="15" t="s">
         <v>861</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="15" t="s">
         <v>862</v>
       </c>
     </row>
@@ -5665,7 +5680,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5937,8 +5952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49D82B-1314-44E9-9C10-AF21C213EB48}">
   <dimension ref="A1:F270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5970,7 +5985,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" t="s">
         <v>783</v>
       </c>
       <c r="D2" t="s">
@@ -5987,7 +6002,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" t="s">
         <v>782</v>
       </c>
       <c r="D3" t="s">
@@ -6068,603 +6083,603 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="21">
+        <v>2</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="21">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="21">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>882</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="21">
+        <v>2</v>
+      </c>
+      <c r="F9" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="21">
+        <v>2</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>883</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="21">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="21">
+        <v>2</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>782</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="21">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="21">
+        <v>2</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>884</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="21">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="21">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="21">
+        <v>2</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>885</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="21">
         <v>6</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="21">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="21">
+        <v>2</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>886</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="21">
         <v>7</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="21">
+        <v>2</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>887</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="21">
         <v>8</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="21">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="16" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="21">
+        <v>2</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="21">
         <v>9</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="21">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="21">
+        <v>2</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>888</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="21">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="21">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="21">
+        <v>2</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>889</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="21">
         <v>11</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="21">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="21">
+        <v>2</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>890</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="21">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="21">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="21">
+        <v>2</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>891</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="21">
         <v>13</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="21">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>892</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="21">
         <v>14</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" s="21" t="s">
+    <row r="22" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="21">
+        <v>2</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="21">
         <v>15</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="21">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="21">
+        <v>2</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="21">
         <v>16</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="21">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="24" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="21">
+        <v>2</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="21">
         <v>17</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="21">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="21">
+        <v>2</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>893</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="21">
         <v>18</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="21">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="21" t="s">
+    <row r="26" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="21">
+        <v>2</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="21">
         <v>19</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="21">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C27" s="21" t="s">
+    <row r="27" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="22" t="s">
         <v>229</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>782</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="21">
         <v>1</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="21">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C28" s="21" t="s">
+    <row r="28" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="21">
+        <v>2</v>
+      </c>
+      <c r="F28" s="21">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C29" s="21" t="s">
+    <row r="29" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="21">
         <v>3</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="21">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C30" s="21" t="s">
+    <row r="30" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="21">
         <v>4</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="21">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C31" s="21" t="s">
+    <row r="31" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="21">
         <v>5</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="21">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C32" s="21" t="s">
+    <row r="32" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="21">
         <v>6</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="21">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C33" s="21" t="s">
+    <row r="33" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="21">
         <v>7</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="21">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C34" s="21" t="s">
+    <row r="34" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="22" t="s">
         <v>895</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="21">
         <v>8</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="21">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C35" s="21" t="s">
+    <row r="35" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="21">
         <v>9</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="21">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C36" s="21" t="s">
+    <row r="36" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="22" t="s">
         <v>884</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="21">
         <v>10</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="21">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C37" s="21" t="s">
+    <row r="37" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="21">
         <v>11</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="21">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C38" s="21" t="s">
+    <row r="38" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="21">
         <v>12</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="21">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C39" s="21" t="s">
+    <row r="39" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="21">
         <v>13</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="21">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C40" s="21" t="s">
+    <row r="40" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="21">
         <v>14</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="21">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C41" s="21" t="s">
+    <row r="41" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="21">
         <v>15</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="21">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C42" s="21" t="s">
+    <row r="42" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="22" t="s">
         <v>896</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="21">
         <v>16</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="21">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C43" s="21" t="s">
+    <row r="43" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="21">
         <v>17</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="21">
         <v>42</v>
       </c>
     </row>
@@ -7059,139 +7074,139 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
+    <row r="67" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="21">
+        <v>2</v>
+      </c>
+      <c r="C67" s="21" t="s">
         <v>897</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="21">
         <v>1</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="21">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B68">
-        <v>2</v>
-      </c>
-      <c r="C68" t="s">
+    <row r="68" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="21">
+        <v>2</v>
+      </c>
+      <c r="C68" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E68">
-        <v>2</v>
-      </c>
-      <c r="F68">
+      <c r="E68" s="21">
+        <v>2</v>
+      </c>
+      <c r="F68" s="21">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69" t="s">
+    <row r="69" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="21">
+        <v>2</v>
+      </c>
+      <c r="C69" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="21">
         <v>3</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="21">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
+    <row r="70" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="21">
+        <v>2</v>
+      </c>
+      <c r="C70" s="21" t="s">
         <v>898</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="21">
         <v>4</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="21">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s">
+    <row r="71" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="21">
+        <v>2</v>
+      </c>
+      <c r="C71" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="21">
         <v>5</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="21">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72">
-        <v>2</v>
-      </c>
-      <c r="C72" t="s">
+    <row r="72" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="21">
+        <v>2</v>
+      </c>
+      <c r="C72" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="21">
         <v>6</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="21">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B73">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
+    <row r="73" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="21">
+        <v>2</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>899</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="21">
         <v>7</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="21">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
+    <row r="74" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="21">
+        <v>2</v>
+      </c>
+      <c r="C74" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="21">
         <v>8</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="21">
         <v>73</v>
       </c>
     </row>
@@ -9031,315 +9046,282 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C183" t="s">
+    <row r="183" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C183" s="21" t="s">
         <v>900</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C184" s="21" t="s">
+    <row r="184" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C184" s="22" t="s">
         <v>901</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C185" s="21" t="s">
+      <c r="E184" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C185" s="22" t="s">
         <v>902</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C186" t="s">
+    <row r="186" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C186" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C187" t="s">
+    <row r="187" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C187" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C188" t="s">
+    <row r="188" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C188" s="21" t="s">
         <v>903</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C189" t="s">
+    <row r="189" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C189" s="21" t="s">
         <v>904</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C190" t="s">
+    <row r="190" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C190" s="21" t="s">
         <v>905</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C191" t="s">
+    <row r="191" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C191" s="21" t="s">
         <v>906</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C192" t="s">
+    <row r="192" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C192" s="21" t="s">
         <v>907</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C193" t="s">
+    <row r="193" spans="3:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C193" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="21">
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C194" t="s">
+    <row r="194" spans="3:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C194" s="21" t="s">
         <v>884</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="21">
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C195" t="s">
+    <row r="195" spans="3:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C195" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C196" t="s">
+    <row r="196" spans="3:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C196" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="21">
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C197" t="s">
+    <row r="197" spans="3:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C197" s="21" t="s">
         <v>910</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="21">
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C198" t="s">
+    <row r="198" spans="3:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C198" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="21">
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C199" t="s">
+    <row r="199" spans="3:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C199" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="21">
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C200" t="s">
+    <row r="200" spans="3:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C200" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="21">
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C201" t="s">
+    <row r="201" spans="3:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C201" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="21">
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C202" t="s">
+    <row r="202" spans="3:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C202" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="21">
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B203">
-        <v>3</v>
-      </c>
-      <c r="C203" t="s">
+    <row r="203" spans="3:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C203" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="21">
         <v>21</v>
       </c>
-      <c r="F203">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B204">
-        <v>3</v>
-      </c>
-      <c r="C204" t="s">
+    </row>
+    <row r="204" spans="3:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C204" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="21">
         <v>22</v>
       </c>
-      <c r="F204">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B205">
-        <v>3</v>
-      </c>
-      <c r="C205" t="s">
+    </row>
+    <row r="205" spans="3:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C205" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="21">
         <v>23</v>
       </c>
-      <c r="F205">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B206">
-        <v>3</v>
-      </c>
-      <c r="C206" t="s">
+    </row>
+    <row r="206" spans="3:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C206" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="21">
         <v>24</v>
       </c>
-      <c r="F206">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B207">
-        <v>3</v>
-      </c>
-      <c r="C207" t="s">
+    </row>
+    <row r="207" spans="3:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C207" s="21" t="s">
         <v>911</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="21">
         <v>25</v>
       </c>
-      <c r="F207">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B208">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="208" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C208" t="s">
         <v>367</v>
       </c>
